--- a/biology/Zoologie/Drongo_pailleté/Drongo_pailleté.xlsx
+++ b/biology/Zoologie/Drongo_pailleté/Drongo_pailleté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drongo_paillet%C3%A9</t>
+          <t>Drongo_pailleté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus bracteatus
 Le Drongo pailleté (Dicrurus bracteatus) est une espèce d'oiseau de la famille des Dicruridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drongo_paillet%C3%A9</t>
+          <t>Drongo_pailleté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Drongo pailleté est le seul drongo vivant en Australie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drongo_paillet%C3%A9</t>
+          <t>Drongo_pailleté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Drongo est un mot de l'argot australien qui signifie "idiot", probablement  à cause du comportement inhabituel et parfois comique de l'oiseau lorsqu'il descend se percher.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drongo_paillet%C3%A9</t>
+          <t>Drongo_pailleté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement silencieux, cet oiseau peut quelquefois pousser des cris amusants, complexes, incroyablement bruyants.
 La particularité la plus remarquable de cet oiseau est l'aspect de sa queue longue, croisée et fourchue, les deux moitiés semblant au premier coup d'œil se croiser.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drongo_paillet%C3%A9</t>
+          <t>Drongo_pailleté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand cet oiseau vient dans les zones habitées, il peut facilement s'apprivoiser en lui lançant des petits morceaux de viande crue qu'il va attraper très facilement avec beaucoup de dextérité.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Drongo_paillet%C3%A9</t>
+          <t>Drongo_pailleté</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe onze sous-espèces :
 Dicrurus bracteatus amboinensis Gray,GR 1861 ;
